--- a/demo/节能降耗计算（第14章）.xlsx
+++ b/demo/节能降耗计算（第14章）.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1461,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/demo/节能降耗计算（第14章）.xlsx
+++ b/demo/节能降耗计算（第14章）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
   <si>
     <t>变压器</t>
   </si>
@@ -633,6 +633,10 @@
   </si>
   <si>
     <t>道路长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器额定容量（MVA）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1461,7 +1465,7 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1500,10 +1504,10 @@
         <v>23064.84</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -1604,20 +1608,20 @@
       </c>
       <c r="D7" s="3">
         <f>B3/2/E3/G3/E7*10</f>
-        <v>0.16860263157894739</v>
+        <v>0.12645197368421052</v>
       </c>
       <c r="E7" s="3">
         <v>8000</v>
       </c>
       <c r="F7" s="9">
-        <v>2306.5</v>
+        <v>2206.5</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
       </c>
       <c r="H7" s="3">
         <f>(B7*E7+C7*D7*D7*F7)/10000*G7</f>
-        <v>36.401143344532684</v>
+        <v>35.698546095474804</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
@@ -1662,7 +1666,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="8">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
@@ -1671,7 +1675,7 @@
       </c>
       <c r="B12" s="38">
         <f>B3/D10</f>
-        <v>823.74428571428575</v>
+        <v>576.62099999999998</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1698,7 +1702,7 @@
       </c>
       <c r="M13" s="8">
         <f>H28</f>
-        <v>913.22221779423887</v>
+        <v>1458.2015457102689</v>
       </c>
       <c r="O13" s="13" t="s">
         <v>31</v>
@@ -1743,7 +1747,7 @@
       </c>
       <c r="M14" s="11">
         <f>M13*P13*10</f>
-        <v>2922.3110969415643</v>
+        <v>4666.24494627286</v>
       </c>
       <c r="P14">
         <v>1.4714</v>
@@ -1794,7 +1798,7 @@
       </c>
       <c r="D16" s="3">
         <f>B12/E12/G12/E16*10</f>
-        <v>0.307918767088175</v>
+        <v>0.21554313696172248</v>
       </c>
       <c r="E16" s="3">
         <v>8000</v>
@@ -1805,7 +1809,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="3">
         <f>(B16*E16+C16*D16*D16*F16)/10000*D10</f>
-        <v>67.069999449706103</v>
+        <v>85.464199614794282</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>33</v>
@@ -1824,7 +1828,7 @@
       </c>
       <c r="M18" s="11">
         <f>M14+M16</f>
-        <v>2928.8293989415642</v>
+        <v>4672.7632482728604</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -1839,7 +1843,7 @@
       </c>
       <c r="M20" s="11">
         <f>M18/O4*100</f>
-        <v>10.796333673479667</v>
+        <v>17.224871897201638</v>
       </c>
       <c r="N20" t="s">
         <v>36</v>
@@ -1854,7 +1858,7 @@
       </c>
       <c r="M21" s="11">
         <f>M18/P21/O4*1000</f>
-        <v>207.62180141307053</v>
+        <v>331.2475364846469</v>
       </c>
       <c r="N21" t="s">
         <v>45</v>
@@ -1875,7 +1879,7 @@
       </c>
       <c r="M22" s="11">
         <f>M13/O4*100</f>
-        <v>3.3663455389053332</v>
+        <v>5.375263733818449</v>
       </c>
       <c r="N22" t="s">
         <v>49</v>
@@ -1887,15 +1891,15 @@
       </c>
       <c r="B23" s="8">
         <f>E3*0.25</f>
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="H23" s="37">
         <f>H16</f>
-        <v>67.069999449706103</v>
+        <v>85.464199614794282</v>
       </c>
       <c r="I23" s="40">
         <f>H23/$M$13*100</f>
-        <v>7.3443241023750332</v>
+        <v>5.8609319038381562</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -1904,35 +1908,35 @@
       </c>
       <c r="B24">
         <f>0.008*B23*F7/10</f>
-        <v>41.516999999999996</v>
+        <v>52.955999999999996</v>
       </c>
       <c r="H24" s="37">
         <f>B34</f>
-        <v>663.23407500000008</v>
+        <v>1179.0827999999999</v>
       </c>
       <c r="I24" s="40">
         <f>H24/$M$13*100</f>
-        <v>72.625705121580339</v>
+        <v>80.85869909194794</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="H25" s="37">
         <f>B24</f>
-        <v>41.516999999999996</v>
+        <v>52.955999999999996</v>
       </c>
       <c r="I25" s="40">
         <f>H25/$M$13*100</f>
-        <v>4.5462100232601141</v>
+        <v>3.6315967539456895</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="H26" s="37">
         <f>H7</f>
-        <v>36.401143344532684</v>
+        <v>35.698546095474804</v>
       </c>
       <c r="I26" s="40">
         <f>H26/$M$13*100</f>
-        <v>3.9860115791372857</v>
+        <v>2.4481215371422853</v>
       </c>
       <c r="J26" s="37"/>
       <c r="K26" s="40"/>
@@ -1948,7 +1952,7 @@
       </c>
       <c r="I27" s="40">
         <f>H27/$M$13*100</f>
-        <v>11.497749173647229</v>
+        <v>7.2006507131259427</v>
       </c>
       <c r="J27" s="37"/>
       <c r="K27" s="40"/>
@@ -1967,7 +1971,7 @@
       </c>
       <c r="H28" s="41">
         <f>SUM(H23:H27)</f>
-        <v>913.22221779423887</v>
+        <v>1458.2015457102689</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="37"/>
@@ -2032,7 +2036,7 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B34">
         <f>0.005*F16/1000*E3^2/10*D33</f>
-        <v>663.23407500000008</v>
+        <v>1179.0827999999999</v>
       </c>
       <c r="M34" s="21"/>
     </row>
